--- a/Aldo/pessoa.xlsx
+++ b/Aldo/pessoa.xlsx
@@ -441,47 +441,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>logradouro</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>numero</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>complemento</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bairro</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>cep</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cidade</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>estado</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>telefone</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>numero</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>complemento</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bairro</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>estado</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>cidade</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>nome</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>logradouro</t>
         </is>
       </c>
     </row>
